--- a/subject_features1_data.xlsx
+++ b/subject_features1_data.xlsx
@@ -668,23 +668,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
